--- a/resources/database/data/db_anime - staging data.xlsx
+++ b/resources/database/data/db_anime - staging data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;&gt;Final" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="291">
   <si>
     <t>4K 2160p</t>
   </si>
@@ -447,351 +447,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>04/03/2014</t>
-  </si>
-  <si>
-    <t>03/15/2015</t>
-  </si>
-  <si>
-    <t>03/06/2015</t>
-  </si>
-  <si>
-    <t>02/28/2015</t>
-  </si>
-  <si>
-    <t>02/27/2016</t>
-  </si>
-  <si>
-    <t>01/25/2013</t>
-  </si>
-  <si>
-    <t>04/12/2015</t>
-  </si>
-  <si>
-    <t>04/08/2014</t>
-  </si>
-  <si>
-    <t>05/19/2015</t>
-  </si>
-  <si>
-    <t>03/10/2013</t>
-  </si>
-  <si>
-    <t>04/12/2014</t>
-  </si>
-  <si>
-    <t>02/13/2015</t>
-  </si>
-  <si>
-    <t>04/23/2015</t>
-  </si>
-  <si>
-    <t>05/12/2015</t>
-  </si>
-  <si>
-    <t>04/24/2016</t>
-  </si>
-  <si>
-    <t>02/28/2016</t>
-  </si>
-  <si>
-    <t>01/24/2016</t>
-  </si>
-  <si>
-    <t>02/13/2016</t>
-  </si>
-  <si>
-    <t>06/05/2014</t>
-  </si>
-  <si>
-    <t>04/15/2016</t>
-  </si>
-  <si>
-    <t>04/15/2014</t>
-  </si>
-  <si>
-    <t>01/27/2016</t>
-  </si>
-  <si>
-    <t>04/15/2015</t>
-  </si>
-  <si>
-    <t>03/07/2016</t>
-  </si>
-  <si>
-    <t>04/03/2015</t>
-  </si>
-  <si>
-    <t>04/27/2014</t>
-  </si>
-  <si>
-    <t>04/02/2013</t>
-  </si>
-  <si>
-    <t>12/05/2014</t>
-  </si>
-  <si>
-    <t>04/29/2015</t>
-  </si>
-  <si>
-    <t>08/01/2013</t>
-  </si>
-  <si>
-    <t>08/17/2013</t>
-  </si>
-  <si>
-    <t>07/20/2014</t>
-  </si>
-  <si>
-    <t>03/25/2013</t>
-  </si>
-  <si>
-    <t>04/17/2015</t>
-  </si>
-  <si>
-    <t>04/01/2013</t>
-  </si>
-  <si>
-    <t>12/26/2013</t>
-  </si>
-  <si>
-    <t>08/17/2014</t>
-  </si>
-  <si>
-    <t>08/06/2013</t>
-  </si>
-  <si>
-    <t>08/22/2013</t>
-  </si>
-  <si>
-    <t>08/26/2013</t>
-  </si>
-  <si>
-    <t>05/18/2014</t>
-  </si>
-  <si>
-    <t>08/08/2015</t>
-  </si>
-  <si>
-    <t>11/14/2012</t>
-  </si>
-  <si>
-    <t>07/06/2014</t>
-  </si>
-  <si>
-    <t>04/26/2013</t>
-  </si>
-  <si>
-    <t>12/23/2012</t>
-  </si>
-  <si>
-    <t>10/18/2013</t>
-  </si>
-  <si>
-    <t>12/07/2013</t>
-  </si>
-  <si>
-    <t>12/02/2012</t>
-  </si>
-  <si>
-    <t>08/03/2013</t>
-  </si>
-  <si>
-    <t>04/02/2014</t>
-  </si>
-  <si>
-    <t>09/12/2014</t>
-  </si>
-  <si>
-    <t>04/18/2015</t>
-  </si>
-  <si>
-    <t>11/26/2013</t>
-  </si>
-  <si>
-    <t>12/12/2013</t>
-  </si>
-  <si>
-    <t>05/17/2013</t>
-  </si>
-  <si>
-    <t>02/19/2015</t>
-  </si>
-  <si>
-    <t>03/10/2015</t>
-  </si>
-  <si>
-    <t>07/06/2013</t>
-  </si>
-  <si>
-    <t>11/26/2014</t>
-  </si>
-  <si>
-    <t>01/21/2014</t>
-  </si>
-  <si>
-    <t>01/02/2013</t>
-  </si>
-  <si>
-    <t>08/10/2014</t>
-  </si>
-  <si>
-    <t>04/14/2015</t>
-  </si>
-  <si>
-    <t>11/05/2014</t>
-  </si>
-  <si>
-    <t>02/10/2014</t>
-  </si>
-  <si>
-    <t>10/12/2014</t>
-  </si>
-  <si>
-    <t>03/12/2013</t>
-  </si>
-  <si>
-    <t>04/06/2013</t>
-  </si>
-  <si>
-    <t>12/14/2013</t>
-  </si>
-  <si>
-    <t>05/21/2014</t>
-  </si>
-  <si>
-    <t>05/15/2015</t>
-  </si>
-  <si>
-    <t>04/21/2015</t>
-  </si>
-  <si>
-    <t>05/28/2015</t>
-  </si>
-  <si>
-    <t>06/22/2013</t>
-  </si>
-  <si>
-    <t>11/30/2013</t>
-  </si>
-  <si>
-    <t>01/19/2015</t>
-  </si>
-  <si>
-    <t>03/24/2016</t>
-  </si>
-  <si>
-    <t>04/08/2015</t>
-  </si>
-  <si>
-    <t>04/16/2015</t>
-  </si>
-  <si>
-    <t>04/13/2015</t>
-  </si>
-  <si>
-    <t>04/07/2013</t>
-  </si>
-  <si>
-    <t>04/11/2013</t>
-  </si>
-  <si>
-    <t>06/21/2014</t>
-  </si>
-  <si>
-    <t>06/12/2014</t>
-  </si>
-  <si>
-    <t>01/05/2015</t>
-  </si>
-  <si>
-    <t>09/08/2013</t>
-  </si>
-  <si>
-    <t>05/20/2015</t>
-  </si>
-  <si>
-    <t>06/06/2013</t>
-  </si>
-  <si>
-    <t>11/03/2013</t>
-  </si>
-  <si>
-    <t>06/10/2014</t>
-  </si>
-  <si>
-    <t>06/21/2015</t>
-  </si>
-  <si>
-    <t>07/25/2015</t>
-  </si>
-  <si>
-    <t>08/23/2015</t>
-  </si>
-  <si>
-    <t>11/20/2015</t>
-  </si>
-  <si>
-    <t>05/10/2013</t>
-  </si>
-  <si>
-    <t>01/08/2014</t>
-  </si>
-  <si>
-    <t>05/02/2012</t>
-  </si>
-  <si>
-    <t>05/04/2012</t>
-  </si>
-  <si>
-    <t>12/26/2012</t>
-  </si>
-  <si>
-    <t>10/28/2014</t>
-  </si>
-  <si>
-    <t>03/03/2013</t>
-  </si>
-  <si>
-    <t>02/27/2013</t>
-  </si>
-  <si>
-    <t>11/03/2012</t>
-  </si>
-  <si>
-    <t>10/29/2012</t>
-  </si>
-  <si>
-    <t>11/22/2012</t>
-  </si>
-  <si>
-    <t>12/30/2012</t>
-  </si>
-  <si>
-    <t>12/04/2012</t>
-  </si>
-  <si>
-    <t>04/21/2012</t>
-  </si>
-  <si>
-    <t>04/22/2013</t>
-  </si>
-  <si>
-    <t>04/19/2013</t>
-  </si>
-  <si>
-    <t>04/22/2012</t>
-  </si>
-  <si>
-    <t>04/18/2012</t>
-  </si>
-  <si>
-    <t>02/24/2013</t>
-  </si>
-  <si>
-    <t>04/12/2012</t>
-  </si>
-  <si>
     <t>Fall</t>
   </si>
   <si>
@@ -895,15 +550,367 @@
   </si>
   <si>
     <t>CH 10bit</t>
+  </si>
+  <si>
+    <t>2014-04-03</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>2015-03-06</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2016-02-27</t>
+  </si>
+  <si>
+    <t>2013-01-25</t>
+  </si>
+  <si>
+    <t>2015-04-12</t>
+  </si>
+  <si>
+    <t>2014-04-08</t>
+  </si>
+  <si>
+    <t>2015-05-19</t>
+  </si>
+  <si>
+    <t>2013-03-10</t>
+  </si>
+  <si>
+    <t>2014-04-12</t>
+  </si>
+  <si>
+    <t>2015-02-13</t>
+  </si>
+  <si>
+    <t>2015-04-23</t>
+  </si>
+  <si>
+    <t>2015-05-12</t>
+  </si>
+  <si>
+    <t>2016-04-24</t>
+  </si>
+  <si>
+    <t>2016-02-28</t>
+  </si>
+  <si>
+    <t>2016-01-24</t>
+  </si>
+  <si>
+    <t>2016-02-13</t>
+  </si>
+  <si>
+    <t>2014-06-05</t>
+  </si>
+  <si>
+    <t>2016-04-15</t>
+  </si>
+  <si>
+    <t>2014-04-15</t>
+  </si>
+  <si>
+    <t>2016-01-27</t>
+  </si>
+  <si>
+    <t>2015-04-15</t>
+  </si>
+  <si>
+    <t>2016-03-07</t>
+  </si>
+  <si>
+    <t>2015-04-03</t>
+  </si>
+  <si>
+    <t>2014-04-27</t>
+  </si>
+  <si>
+    <t>2013-04-02</t>
+  </si>
+  <si>
+    <t>2014-12-05</t>
+  </si>
+  <si>
+    <t>2015-04-29</t>
+  </si>
+  <si>
+    <t>2013-08-01</t>
+  </si>
+  <si>
+    <t>2013-08-17</t>
+  </si>
+  <si>
+    <t>2014-07-20</t>
+  </si>
+  <si>
+    <t>2013-03-25</t>
+  </si>
+  <si>
+    <t>2015-04-17</t>
+  </si>
+  <si>
+    <t>2013-04-01</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>2014-08-17</t>
+  </si>
+  <si>
+    <t>2013-08-06</t>
+  </si>
+  <si>
+    <t>2013-08-22</t>
+  </si>
+  <si>
+    <t>2013-08-26</t>
+  </si>
+  <si>
+    <t>2014-05-18</t>
+  </si>
+  <si>
+    <t>2015-08-08</t>
+  </si>
+  <si>
+    <t>2012-11-14</t>
+  </si>
+  <si>
+    <t>2014-07-06</t>
+  </si>
+  <si>
+    <t>2013-04-26</t>
+  </si>
+  <si>
+    <t>2012-12-23</t>
+  </si>
+  <si>
+    <t>2013-10-18</t>
+  </si>
+  <si>
+    <t>2013-12-07</t>
+  </si>
+  <si>
+    <t>2012-12-02</t>
+  </si>
+  <si>
+    <t>2013-08-03</t>
+  </si>
+  <si>
+    <t>2014-04-02</t>
+  </si>
+  <si>
+    <t>2014-09-12</t>
+  </si>
+  <si>
+    <t>2015-04-18</t>
+  </si>
+  <si>
+    <t>2013-11-26</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>2013-05-17</t>
+  </si>
+  <si>
+    <t>2015-02-19</t>
+  </si>
+  <si>
+    <t>2015-03-10</t>
+  </si>
+  <si>
+    <t>2013-07-06</t>
+  </si>
+  <si>
+    <t>2014-11-26</t>
+  </si>
+  <si>
+    <t>2014-01-21</t>
+  </si>
+  <si>
+    <t>2013-01-02</t>
+  </si>
+  <si>
+    <t>2014-08-10</t>
+  </si>
+  <si>
+    <t>2015-04-14</t>
+  </si>
+  <si>
+    <t>2014-11-05</t>
+  </si>
+  <si>
+    <t>2014-02-10</t>
+  </si>
+  <si>
+    <t>2014-10-12</t>
+  </si>
+  <si>
+    <t>2013-03-12</t>
+  </si>
+  <si>
+    <t>2013-04-06</t>
+  </si>
+  <si>
+    <t>2013-12-14</t>
+  </si>
+  <si>
+    <t>2014-05-21</t>
+  </si>
+  <si>
+    <t>2015-05-15</t>
+  </si>
+  <si>
+    <t>2015-04-21</t>
+  </si>
+  <si>
+    <t>2015-05-28</t>
+  </si>
+  <si>
+    <t>2013-06-22</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2015-01-19</t>
+  </si>
+  <si>
+    <t>2016-03-24</t>
+  </si>
+  <si>
+    <t>2015-04-08</t>
+  </si>
+  <si>
+    <t>2015-04-16</t>
+  </si>
+  <si>
+    <t>2015-04-13</t>
+  </si>
+  <si>
+    <t>2013-04-07</t>
+  </si>
+  <si>
+    <t>2013-04-11</t>
+  </si>
+  <si>
+    <t>2014-06-21</t>
+  </si>
+  <si>
+    <t>2014-06-12</t>
+  </si>
+  <si>
+    <t>2015-01-05</t>
+  </si>
+  <si>
+    <t>2013-09-08</t>
+  </si>
+  <si>
+    <t>2015-05-20</t>
+  </si>
+  <si>
+    <t>2013-06-06</t>
+  </si>
+  <si>
+    <t>2013-11-03</t>
+  </si>
+  <si>
+    <t>2014-06-10</t>
+  </si>
+  <si>
+    <t>2015-06-21</t>
+  </si>
+  <si>
+    <t>2015-07-25</t>
+  </si>
+  <si>
+    <t>2015-08-23</t>
+  </si>
+  <si>
+    <t>2015-11-20</t>
+  </si>
+  <si>
+    <t>2013-05-10</t>
+  </si>
+  <si>
+    <t>2014-01-08</t>
+  </si>
+  <si>
+    <t>2012-05-02</t>
+  </si>
+  <si>
+    <t>2012-05-04</t>
+  </si>
+  <si>
+    <t>2012-12-26</t>
+  </si>
+  <si>
+    <t>2014-10-28</t>
+  </si>
+  <si>
+    <t>2013-03-03</t>
+  </si>
+  <si>
+    <t>2013-02-27</t>
+  </si>
+  <si>
+    <t>2012-11-03</t>
+  </si>
+  <si>
+    <t>2012-10-29</t>
+  </si>
+  <si>
+    <t>2012-11-22</t>
+  </si>
+  <si>
+    <t>2012-12-30</t>
+  </si>
+  <si>
+    <t>2012-12-04</t>
+  </si>
+  <si>
+    <t>2012-04-21</t>
+  </si>
+  <si>
+    <t>2013-04-22</t>
+  </si>
+  <si>
+    <t>2013-04-19</t>
+  </si>
+  <si>
+    <t>2012-04-22</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>2013-02-24</t>
+  </si>
+  <si>
+    <t>2012-04-12</t>
+  </si>
+  <si>
+    <t>Kore wa Zombie Desu ka?</t>
+  </si>
+  <si>
+    <t>Kore wa Zombie Desu ka Season 2 - Of The Dead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="00"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -962,7 +969,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,6 +997,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1327,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:S124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1338,11 +1345,12 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1370,35 +1378,35 @@
       <c r="I1">
         <v>1</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="13">
         <v>42951</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2016</v>
       </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
       <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
         <v>51</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>65</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1426,35 +1434,35 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="13">
         <v>42986</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2010</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>67</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>30</v>
       </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1483,30 +1491,33 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
         <v>2010</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>44</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>56</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1535,25 +1546,28 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="M5">
+        <v>17</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>43</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>54</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1582,32 +1596,35 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6">
         <v>2009</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>51</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1636,27 +1653,30 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>42</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>45</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1685,32 +1705,35 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2012</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>15</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>7</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1739,19 +1762,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L9">
+        <v>63</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9">
         <v>2011</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1780,30 +1806,33 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2013</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>44</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>24</v>
       </c>
-      <c r="P10" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1832,28 +1861,31 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11">
+        <v>73</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11">
         <v>2013</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>7</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>56</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1879,25 +1911,28 @@
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="N12">
         <v>5</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>6</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>36</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1926,28 +1961,31 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L13">
+        <v>26</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13">
         <v>2011</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>36</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>32</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1976,28 +2014,31 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L14">
+        <v>27</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14">
         <v>2010</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2026,30 +2067,33 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2013</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>21</v>
       </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2078,30 +2122,33 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2009</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>6</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>19</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>18</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2130,25 +2177,28 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="M17">
+        <v>29</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="N17">
         <v>4</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>20</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>52</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="Q17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="7"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2177,30 +2227,33 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L18">
+        <v>31</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18">
         <v>2012</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>5</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>53</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2229,30 +2282,33 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2014</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>7</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>39</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>38</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="Q19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="7"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2281,32 +2337,35 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20">
         <v>2015</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>4</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>17</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>25</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="Q20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2335,32 +2394,35 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21">
         <v>2014</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>5</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>9</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="Q21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2389,28 +2451,31 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M22">
         <v>2013</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>4</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>47</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>35</v>
       </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2439,25 +2504,28 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>158</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="N23">
         <v>4</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>48</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>58</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2486,28 +2554,31 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2010</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>4</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>44</v>
       </c>
-      <c r="O24">
-        <v>12</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2536,32 +2607,35 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L25">
+        <v>108</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25">
         <v>2013</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>6</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>32</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>56</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="Q25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2590,32 +2664,35 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L26">
+        <v>39</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26">
         <v>2013</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>55</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2644,32 +2721,35 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L27">
+        <v>40</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27">
         <v>2014</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>4</v>
       </c>
-      <c r="N27">
-        <v>13</v>
-      </c>
       <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="P27">
         <v>32</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="Q27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2698,30 +2778,33 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L28">
+        <v>41</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28">
         <v>2013</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>4</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>49</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>50</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2750,23 +2833,26 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="M29">
+        <v>42</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="N29">
         <v>5</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>57</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>38</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2795,23 +2881,26 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="M30">
+        <v>43</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="N30">
         <v>4</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>55</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>58</v>
       </c>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q30" s="5"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2840,25 +2929,28 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="M31">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="L31" s="2"/>
       <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
         <v>56</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>38</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2887,25 +2979,28 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>167</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="M32">
+        <v>45</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="N32">
         <v>5</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>35</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>52</v>
       </c>
-      <c r="P32" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2934,23 +3029,26 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="M33">
+        <v>46</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="N33">
         <v>5</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>17</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>35</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="12"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q33" s="5"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2979,28 +3077,31 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L34">
+        <v>47</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M34">
         <v>2010</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>11</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
       <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
         <v>37</v>
       </c>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="12"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q34" s="5"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3029,28 +3130,31 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>170</v>
-      </c>
-      <c r="K35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2011</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>5</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>9</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>44</v>
       </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="12"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q35" s="5"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3079,23 +3183,26 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="M36">
+        <v>49</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="N36">
         <v>5</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>14</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>55</v>
       </c>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="12"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q36" s="5"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3124,30 +3231,33 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>172</v>
-      </c>
-      <c r="K37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>2013</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>4</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>44</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>31</v>
       </c>
-      <c r="P37" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3176,23 +3286,26 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>173</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="M38">
+        <v>51</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="N38">
         <v>5</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>7</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>42</v>
       </c>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="12"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q38" s="5"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3221,23 +3334,26 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>174</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="M39">
+        <v>52</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="N39">
         <v>5</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>16</v>
       </c>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q39" s="5"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3266,28 +3382,31 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>175</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L40">
+        <v>53</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M40">
         <v>2013</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>9</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>45</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>29</v>
       </c>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q40" s="5"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3316,28 +3435,31 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>176</v>
-      </c>
-      <c r="K41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>2012</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>5</v>
       </c>
-      <c r="N41">
-        <v>13</v>
-      </c>
       <c r="O41">
+        <v>13</v>
+      </c>
+      <c r="P41">
         <v>39</v>
       </c>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q41" s="5"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -3366,23 +3488,26 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>177</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="M42">
+        <v>55</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="N42">
         <v>9</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>24</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>16</v>
       </c>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -3411,23 +3536,26 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>178</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="M43">
+        <v>55</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="N43">
         <v>4</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>51</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>15</v>
       </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="12"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -3456,28 +3584,31 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>2013</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>4</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>7</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>57</v>
       </c>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="12"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -3506,32 +3637,35 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>180</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L45">
+        <v>58</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45">
         <v>2014</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>9</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>8</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>54</v>
       </c>
-      <c r="P45" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -3557,19 +3691,22 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>181</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L46">
+        <v>59</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M46">
         <v>2010</v>
       </c>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="12"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -3598,28 +3735,31 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>182</v>
-      </c>
-      <c r="K47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2013</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>4</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>45</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>25</v>
       </c>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="12"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -3648,23 +3788,26 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>183</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="M48">
+        <v>61</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="N48">
         <v>9</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>47</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>54</v>
       </c>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="12"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3693,19 +3836,22 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>184</v>
-      </c>
-      <c r="K49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>2012</v>
       </c>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="12"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -3734,28 +3880,31 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>185</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L50">
+        <v>63</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M50">
         <v>2009</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>5</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>56</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>45</v>
       </c>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="12"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q50" s="5"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -3784,28 +3933,31 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>186</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L51">
+        <v>63</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M51">
         <v>2010</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>10</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>52</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>46</v>
       </c>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="12"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q51" s="5"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -3834,19 +3986,22 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>187</v>
-      </c>
-      <c r="K52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>2012</v>
       </c>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="12"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -3857,7 +4012,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="E53">
         <v>12</v>
@@ -3875,28 +4030,31 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>188</v>
-      </c>
-      <c r="K53" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>2011</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>5</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>21</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>22</v>
       </c>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="12"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -3907,7 +4065,7 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -3925,28 +4083,31 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>189</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L54">
+        <v>289</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M54">
         <v>2012</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>4</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>57</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>24</v>
       </c>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="12"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q54" s="5"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -3975,28 +4136,31 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>190</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L55">
+        <v>68</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M55">
         <v>2013</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
       <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>45</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>51</v>
       </c>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="12"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q55" s="5"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -4025,24 +4189,27 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>191</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
         <v>2</v>
       </c>
-      <c r="P56" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q56" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="R56" s="7"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -4071,28 +4238,31 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>155</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L57">
+        <v>70</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M57">
         <v>2013</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>4</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>45</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>49</v>
       </c>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -4121,28 +4291,31 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>192</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L58">
+        <v>71</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M58">
         <v>2011</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>5</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>16</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>27</v>
       </c>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -4171,28 +4344,31 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>193</v>
-      </c>
-      <c r="K59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>2012</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>5</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>14</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>3</v>
       </c>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="12"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -4221,28 +4397,31 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>194</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L60">
+        <v>73</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M60">
         <v>2012</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>10</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>15</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>19</v>
       </c>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="12"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -4271,34 +4450,37 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>195</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L61">
+        <v>74</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M61">
         <v>2013</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>10</v>
       </c>
-      <c r="N61">
-        <v>12</v>
-      </c>
       <c r="O61">
+        <v>12</v>
+      </c>
+      <c r="P61">
         <v>32</v>
       </c>
-      <c r="P61" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -4327,30 +4509,33 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>196</v>
-      </c>
-      <c r="K62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>2013</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>5</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>16</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>2</v>
       </c>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -4379,28 +4564,31 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>197</v>
-      </c>
-      <c r="K63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>2013</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>5</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>7</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>35</v>
       </c>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="12"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -4429,25 +4617,28 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>198</v>
-      </c>
-      <c r="K64" s="3"/>
-      <c r="M64">
+        <v>77</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="N64">
         <v>9</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>34</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>40</v>
       </c>
-      <c r="P64" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="R64" s="7"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -4476,23 +4667,26 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>199</v>
-      </c>
-      <c r="K65" s="3"/>
-      <c r="M65">
+        <v>78</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="N65">
         <v>10</v>
       </c>
-      <c r="N65">
-        <v>12</v>
-      </c>
       <c r="O65">
+        <v>12</v>
+      </c>
+      <c r="P65">
         <v>52</v>
       </c>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="12"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="11"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -4521,19 +4715,22 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L66">
+        <v>79</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M66">
         <v>2011</v>
       </c>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="12"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="11"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -4562,28 +4759,31 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>201</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L67">
+        <v>80</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M67">
         <v>2011</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>4</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>56</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="12"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="11"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -4612,30 +4812,33 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>202</v>
-      </c>
-      <c r="K68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>2013</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
       <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
         <v>54</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>6</v>
       </c>
-      <c r="P68" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q68" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="R68" s="7"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -4664,30 +4867,33 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>203</v>
-      </c>
-      <c r="K69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>2013</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>4</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>43</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>57</v>
       </c>
-      <c r="P69" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R69" s="7"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -4716,28 +4922,31 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>204</v>
-      </c>
-      <c r="K70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>2009</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>4</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>55</v>
       </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="12"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="11"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -4766,23 +4975,26 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>205</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="M71">
+        <v>83</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="N71">
         <v>4</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>42</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>59</v>
       </c>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="12"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q71" s="5"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="11"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -4811,23 +5023,26 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>146</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="M72">
+        <v>85</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="N72">
         <v>5</v>
       </c>
-      <c r="N72">
-        <v>12</v>
-      </c>
       <c r="O72">
+        <v>12</v>
+      </c>
+      <c r="P72">
         <v>23</v>
       </c>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="12"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q72" s="5"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="11"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -4856,28 +5071,31 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>206</v>
-      </c>
-      <c r="K73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>2011</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>5</v>
       </c>
-      <c r="N73">
-        <v>13</v>
-      </c>
       <c r="O73">
+        <v>13</v>
+      </c>
+      <c r="P73">
         <v>37</v>
       </c>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="12"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="11"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -4906,28 +5124,31 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>207</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L74">
+        <v>87</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M74">
         <v>2012</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>4</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>44</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>27</v>
       </c>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="12"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="11"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -4956,23 +5177,26 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>208</v>
-      </c>
-      <c r="K75" s="3"/>
-      <c r="M75">
+        <v>87</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="N75">
         <v>4</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>44</v>
       </c>
-      <c r="O75">
-        <v>12</v>
-      </c>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="12"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>12</v>
+      </c>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="11"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -5001,23 +5225,26 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>209</v>
-      </c>
-      <c r="K76" s="3"/>
-      <c r="M76">
+        <v>89</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="N76">
         <v>4</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>44</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>9</v>
       </c>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="12"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="11"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -5046,23 +5273,26 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>192</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="M77">
+        <v>90</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="L77" s="2"/>
+      <c r="N77">
         <v>5</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>14</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>8</v>
       </c>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="12"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="11"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -5091,25 +5321,28 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>210</v>
-      </c>
-      <c r="K78" s="3"/>
-      <c r="M78">
+        <v>90</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L78" s="2"/>
+      <c r="N78">
         <v>5</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>14</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>8</v>
       </c>
-      <c r="P78" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q78" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R78" s="7"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -5138,25 +5371,28 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>211</v>
-      </c>
-      <c r="K79" s="3"/>
-      <c r="M79">
+        <v>90</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="N79">
         <v>5</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>14</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>10</v>
       </c>
-      <c r="P79" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="2"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q79" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R79" s="7"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -5185,30 +5421,33 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>212</v>
-      </c>
-      <c r="K80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>2014</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>4</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>43</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>58</v>
       </c>
-      <c r="P80" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="2"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q80" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R80" s="7"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -5237,28 +5476,31 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>213</v>
-      </c>
-      <c r="K81" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>2011</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>4</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>10</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>25</v>
       </c>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="12"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="11"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -5287,27 +5529,30 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>214</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L82">
+        <v>95</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M82">
         <v>2012</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>5</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>8</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>4</v>
       </c>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="10"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q82" s="5"/>
+      <c r="R82" s="9"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -5336,30 +5581,33 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>215</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L83">
+        <v>96</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M83">
         <v>2011</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>10</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>21</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>59</v>
       </c>
-      <c r="P83" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q83" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R83" s="7"/>
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -5388,32 +5636,35 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>216</v>
-      </c>
-      <c r="K84" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>2014</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>5</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>7</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>26</v>
       </c>
-      <c r="P84" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q84" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="R84" s="7"/>
+      <c r="S84" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -5442,25 +5693,28 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>217</v>
-      </c>
-      <c r="K85" s="3"/>
-      <c r="M85">
+        <v>98</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="L85" s="2"/>
+      <c r="N85">
         <v>9</v>
       </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
       <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
         <v>25</v>
       </c>
-      <c r="P85" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q85" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="R85" s="7"/>
+      <c r="S85" s="2"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
@@ -5489,25 +5743,28 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>218</v>
-      </c>
-      <c r="K86" s="3"/>
-      <c r="M86">
+        <v>98</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="L86" s="2"/>
+      <c r="N86">
         <v>4</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>48</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>41</v>
       </c>
-      <c r="P86" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q86" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="R86" s="7"/>
+      <c r="S86" s="2"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -5536,25 +5793,28 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>219</v>
-      </c>
-      <c r="K87" s="3"/>
-      <c r="M87">
+        <v>98</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="L87" s="2"/>
+      <c r="N87">
         <v>4</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>30</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>15</v>
       </c>
-      <c r="P87" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q87" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="R87" s="7"/>
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
@@ -5583,23 +5843,26 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>220</v>
-      </c>
-      <c r="K88" s="3"/>
-      <c r="M88">
+        <v>101</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="L88" s="2"/>
+      <c r="N88">
         <v>4</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>22</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>3</v>
       </c>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="12"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="11"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -5628,23 +5891,26 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>221</v>
-      </c>
-      <c r="K89" s="3"/>
-      <c r="M89">
+        <v>101</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="L89" s="2"/>
+      <c r="N89">
         <v>4</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>58</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>27</v>
       </c>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="12"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="11"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
@@ -5673,28 +5939,31 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>222</v>
-      </c>
-      <c r="K90" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="L90" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>2014</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>4</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>50</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>17</v>
       </c>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="12"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="11"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
@@ -5723,23 +5992,26 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>223</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="M91">
+        <v>104</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="L91" s="2"/>
+      <c r="N91">
         <v>4</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>50</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>44</v>
       </c>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="12"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q91" s="5"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="11"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
@@ -5768,30 +6040,33 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>224</v>
-      </c>
-      <c r="K92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>2014</v>
       </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
       <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
         <v>40</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>24</v>
       </c>
-      <c r="P92" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="2"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q92" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="R92" s="7"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
@@ -5820,23 +6095,26 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>225</v>
-      </c>
-      <c r="K93" s="3"/>
-      <c r="M93">
+        <v>106</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="L93" s="2"/>
+      <c r="N93">
         <v>4</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>54</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="12"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="11"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>91</v>
       </c>
@@ -5865,25 +6143,28 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>226</v>
-      </c>
-      <c r="K94" s="3"/>
-      <c r="M94">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L94" s="2"/>
       <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
         <v>57</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>2</v>
       </c>
-      <c r="P94" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="2"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q94" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="R94" s="10"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -5912,28 +6193,31 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>227</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L95">
+        <v>108</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M95">
         <v>2010</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>7</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>2</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>9</v>
       </c>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="12"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="11"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
@@ -5962,23 +6246,26 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>228</v>
-      </c>
-      <c r="K96" s="3"/>
-      <c r="M96">
+        <v>109</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="L96" s="2"/>
+      <c r="N96">
         <v>5</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>7</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>26</v>
       </c>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="12"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="11"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
@@ -6007,23 +6294,26 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>229</v>
-      </c>
-      <c r="K97" s="3"/>
-      <c r="M97">
+        <v>110</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L97" s="2"/>
+      <c r="N97">
         <v>5</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>6</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>38</v>
       </c>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="12"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="11"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
@@ -6052,25 +6342,28 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>230</v>
-      </c>
-      <c r="K98" s="3"/>
-      <c r="M98">
+        <v>137</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L98" s="2"/>
+      <c r="N98">
         <v>11</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>7</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>40</v>
       </c>
-      <c r="P98" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="2"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q98" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R98" s="7"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
@@ -6099,28 +6392,31 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>229</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L99">
+        <v>112</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M99">
         <v>2013</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>5</v>
       </c>
-      <c r="N99">
-        <v>13</v>
-      </c>
       <c r="O99">
+        <v>13</v>
+      </c>
+      <c r="P99">
         <v>33</v>
       </c>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="12"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="11"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
@@ -6149,23 +6445,26 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>231</v>
-      </c>
-      <c r="K100" s="3"/>
-      <c r="M100">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="L100" s="2"/>
       <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
         <v>31</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>54</v>
       </c>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="2"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
@@ -6194,30 +6493,33 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>232</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L101">
+        <v>114</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M101">
         <v>2012</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>8</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>24</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>9</v>
       </c>
-      <c r="P101" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="2"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q101" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R101" s="7"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
@@ -6246,30 +6548,33 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>233</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L102">
+        <v>114</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M102">
         <v>2014</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>4</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>7</v>
       </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="P102" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="2"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R102" s="7"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
@@ -6298,23 +6603,26 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>234</v>
-      </c>
-      <c r="K103" s="3"/>
-      <c r="M103">
+        <v>116</v>
+      </c>
+      <c r="K103" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L103" s="2"/>
+      <c r="N103">
         <v>5</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>8</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>11</v>
       </c>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="12"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="11"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
@@ -6343,22 +6651,25 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>235</v>
-      </c>
-      <c r="K104" s="3"/>
-      <c r="M104">
+        <v>117</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L104" s="2"/>
+      <c r="N104">
         <v>4</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>44</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>57</v>
       </c>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="10"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q104" s="5"/>
+      <c r="R104" s="9"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
@@ -6387,14 +6698,17 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>236</v>
-      </c>
-      <c r="K105" s="3"/>
-      <c r="R105" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="L105" s="2"/>
+      <c r="S105" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
@@ -6423,14 +6737,17 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>237</v>
-      </c>
-      <c r="K106" s="3"/>
-      <c r="R106" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L106" s="2"/>
+      <c r="S106" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
@@ -6459,14 +6776,17 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>238</v>
-      </c>
-      <c r="K107" s="3"/>
-      <c r="R107" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L107" s="2"/>
+      <c r="S107" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
@@ -6495,21 +6815,24 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>239</v>
-      </c>
-      <c r="K108" s="3"/>
-      <c r="M108">
+        <v>121</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="L108" s="2"/>
+      <c r="N108">
         <v>79</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>56</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>40</v>
       </c>
-      <c r="R108" s="3"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="2"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>106</v>
       </c>
@@ -6538,23 +6861,26 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>240</v>
-      </c>
-      <c r="K109" s="3"/>
-      <c r="M109">
+        <v>122</v>
+      </c>
+      <c r="K109" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L109" s="2"/>
+      <c r="N109">
         <v>5</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>19</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>17</v>
       </c>
-      <c r="R109" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>107</v>
       </c>
@@ -6583,23 +6909,26 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>241</v>
-      </c>
-      <c r="K110" s="3"/>
-      <c r="M110">
+        <v>123</v>
+      </c>
+      <c r="K110" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="L110" s="2"/>
+      <c r="N110">
         <v>5</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>54</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>36</v>
       </c>
-      <c r="R110" s="6" t="s">
+      <c r="S110" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
@@ -6628,12 +6957,15 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>242</v>
-      </c>
-      <c r="K111" s="3"/>
-      <c r="R111" s="6"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="L111" s="2"/>
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -6662,12 +6994,15 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>243</v>
-      </c>
-      <c r="K112" s="3"/>
-      <c r="R112" s="6"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="L112" s="2"/>
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>110</v>
       </c>
@@ -6696,14 +7031,17 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>244</v>
-      </c>
-      <c r="K113" s="3"/>
-      <c r="R113" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="L113" s="2"/>
+      <c r="S113" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>111</v>
       </c>
@@ -6732,12 +7070,15 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>245</v>
-      </c>
-      <c r="K114" s="3"/>
-      <c r="R114" s="6"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="L114" s="2"/>
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>112</v>
       </c>
@@ -6766,14 +7107,17 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>246</v>
-      </c>
-      <c r="K115" s="3"/>
-      <c r="R115" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="L115" s="2"/>
+      <c r="S115" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>113</v>
       </c>
@@ -6802,19 +7146,22 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>247</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L116">
+        <v>129</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M116">
         <v>2010</v>
       </c>
-      <c r="R116" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>114</v>
       </c>
@@ -6843,14 +7190,17 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>236</v>
-      </c>
-      <c r="K117" s="3"/>
-      <c r="R117" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="K117" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="L117" s="2"/>
+      <c r="S117" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>115</v>
       </c>
@@ -6879,23 +7229,26 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>248</v>
-      </c>
-      <c r="K118" s="3"/>
-      <c r="M118">
+        <v>131</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="L118" s="2"/>
+      <c r="N118">
         <v>5</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>25</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <v>51</v>
       </c>
-      <c r="R118" s="6" t="s">
+      <c r="S118" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
@@ -6924,21 +7277,24 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>249</v>
-      </c>
-      <c r="K119" s="3"/>
-      <c r="M119">
+        <v>132</v>
+      </c>
+      <c r="K119" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="L119" s="2"/>
+      <c r="N119">
         <v>83</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>10</v>
       </c>
-      <c r="O119">
-        <v>1</v>
-      </c>
-      <c r="R119" s="6"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>117</v>
       </c>
@@ -6967,21 +7323,24 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>250</v>
-      </c>
-      <c r="K120" s="3"/>
-      <c r="M120">
+        <v>133</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="L120" s="2"/>
+      <c r="N120">
         <v>4</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>25</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <v>15</v>
       </c>
-      <c r="R120" s="6"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>118</v>
       </c>
@@ -7010,28 +7369,31 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>251</v>
-      </c>
-      <c r="K121" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K121" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="L121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>2011</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>4</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>19</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <v>38</v>
       </c>
-      <c r="R121" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>119</v>
       </c>
@@ -7060,26 +7422,29 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>247</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L122">
+        <v>135</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M122">
         <v>2011</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>4</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>52</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <v>58</v>
       </c>
-      <c r="R122" s="6"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="5"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>120</v>
       </c>
@@ -7108,28 +7473,31 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>252</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L123">
+        <v>136</v>
+      </c>
+      <c r="K123" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M123">
         <v>2006</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>5</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>11</v>
       </c>
-      <c r="O123">
+      <c r="P123">
         <v>40</v>
       </c>
-      <c r="R123" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>121</v>
       </c>
@@ -7155,23 +7523,27 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>253</v>
-      </c>
-      <c r="M124">
+        <v>137</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="N124">
         <v>10</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>26</v>
       </c>
-      <c r="O124">
+      <c r="P124">
         <v>28</v>
       </c>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="12"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -7192,15 +7564,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>41732</v>
       </c>
       <c r="B1" t="str">
         <f>TEXT(A1,"mm/dd/yyyy")</f>
         <v>04/03/2014</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>254</v>
+      <c r="D1" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E1">
         <v>2010</v>
@@ -7216,14 +7588,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42078</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">TEXT(A2,"mm/dd/yyyy")</f>
         <v>03/15/2015</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
       <c r="G2">
         <v>4</v>
       </c>
@@ -7235,15 +7607,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42069</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>03/06/2015</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>254</v>
+      <c r="D3" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E3">
         <v>2009</v>
@@ -7259,14 +7631,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>42063</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>02/28/2015</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="G4">
         <v>4</v>
       </c>
@@ -7278,14 +7650,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>42427</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>02/27/2016</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5">
@@ -7302,29 +7674,29 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>41299</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>01/25/2013</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>254</v>
+      <c r="D6" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E6">
         <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>42106</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>04/12/2015</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7">
@@ -7341,15 +7713,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>41737</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>04/08/2014</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>254</v>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E8">
         <v>2013</v>
@@ -7365,14 +7737,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>42143</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>05/19/2015</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="G9">
         <v>5</v>
       </c>
@@ -7384,15 +7756,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>41343</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>03/10/2013</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>254</v>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E10">
         <v>2011</v>
@@ -7408,15 +7780,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>41741</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>04/12/2014</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>254</v>
+      <c r="D11" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E11">
         <v>2010</v>
@@ -7432,14 +7804,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>42048</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>02/13/2015</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12">
@@ -7456,14 +7828,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>42117</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>04/23/2015</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E13">
@@ -7480,14 +7852,14 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>42136</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>05/12/2015</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
       <c r="G14">
         <v>4</v>
       </c>
@@ -7499,15 +7871,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>42484</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>04/24/2016</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>255</v>
+      <c r="D15" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E15">
         <v>2012</v>
@@ -7523,14 +7895,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>42428</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>02/28/2016</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E16">
@@ -7547,15 +7919,15 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>42393</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>01/24/2016</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>255</v>
+      <c r="D17" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E17">
         <v>2015</v>
@@ -7571,15 +7943,15 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>42413</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>02/13/2016</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>255</v>
+      <c r="D18" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E18">
         <v>2014</v>
@@ -7595,15 +7967,15 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>41795</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>06/05/2014</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>254</v>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E19">
         <v>2013</v>
@@ -7619,14 +7991,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>42475</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>04/15/2016</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="2"/>
       <c r="G20">
         <v>4</v>
       </c>
@@ -7638,14 +8010,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>41744</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>04/15/2014</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E21">
@@ -7662,15 +8034,15 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>42396</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>01/27/2016</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>255</v>
+      <c r="D22" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E22">
         <v>2013</v>
@@ -7686,15 +8058,15 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>42109</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>04/15/2015</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>254</v>
+      <c r="D23" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E23">
         <v>2013</v>
@@ -7710,15 +8082,15 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>42436</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>03/07/2016</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>254</v>
+      <c r="D24" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E24">
         <v>2014</v>
@@ -7734,15 +8106,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>42097</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>04/03/2015</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>254</v>
+      <c r="D25" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E25">
         <v>2013</v>
@@ -7758,14 +8130,14 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>41756</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>04/27/2014</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
       <c r="G26">
         <v>5</v>
       </c>
@@ -7777,14 +8149,14 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>41366</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>04/02/2013</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
       <c r="G27">
         <v>4</v>
       </c>
@@ -7796,14 +8168,14 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>41978</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>12/05/2014</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
       <c r="G28">
         <v>1</v>
       </c>
@@ -7815,14 +8187,14 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>42123</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>04/29/2015</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="2"/>
       <c r="G29">
         <v>5</v>
       </c>
@@ -7834,14 +8206,14 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>41487</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>08/01/2013</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
       <c r="G30">
         <v>5</v>
       </c>
@@ -7853,15 +8225,15 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>41503</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>08/17/2013</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>255</v>
+      <c r="D31" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E31">
         <v>2010</v>
@@ -7877,14 +8249,14 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>41840</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>07/20/2014</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E32">
@@ -7901,14 +8273,14 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>41358</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>03/25/2013</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="2"/>
       <c r="G33">
         <v>5</v>
       </c>
@@ -7920,14 +8292,14 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>42111</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>04/17/2015</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E34">
@@ -7944,14 +8316,14 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>41365</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>04/01/2013</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="2"/>
       <c r="G35">
         <v>5</v>
       </c>
@@ -7963,14 +8335,14 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>41634</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>12/26/2013</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="2"/>
       <c r="G36">
         <v>5</v>
       </c>
@@ -7982,15 +8354,15 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>41868</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>08/17/2014</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>254</v>
+      <c r="D37" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E37">
         <v>2013</v>
@@ -8006,14 +8378,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>41492</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>08/06/2013</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E38">
@@ -8030,14 +8402,14 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>41508</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>08/22/2013</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="2"/>
       <c r="G39">
         <v>9</v>
       </c>
@@ -8049,14 +8421,14 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>41512</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>08/26/2013</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="2"/>
       <c r="G40">
         <v>4</v>
       </c>
@@ -8068,14 +8440,14 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>41777</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>05/18/2014</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E41">
@@ -8092,15 +8464,15 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>42224</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>08/08/2015</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>254</v>
+      <c r="D42" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E42">
         <v>2014</v>
@@ -8116,29 +8488,29 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>41227</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>11/14/2012</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>255</v>
+      <c r="D43" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E43">
         <v>2010</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>41826</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>07/06/2014</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E44">
@@ -8155,14 +8527,14 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>41390</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>04/26/2013</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="2"/>
       <c r="G45">
         <v>9</v>
       </c>
@@ -8174,14 +8546,14 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>41266</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>12/23/2012</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E46">
@@ -8189,15 +8561,15 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>41565</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>10/18/2013</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>255</v>
+      <c r="D47" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E47">
         <v>2009</v>
@@ -8213,15 +8585,15 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>41615</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>12/07/2013</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>255</v>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E48">
         <v>2010</v>
@@ -8237,14 +8609,14 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>41245</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>12/02/2012</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E49">
@@ -8252,14 +8624,14 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>41489</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>08/03/2013</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E50">
@@ -8276,15 +8648,15 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>41731</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>04/02/2014</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>255</v>
+      <c r="D51" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E51">
         <v>2012</v>
@@ -8300,15 +8672,15 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>41894</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>09/12/2014</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>255</v>
+      <c r="D52" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E52">
         <v>2013</v>
@@ -8324,7 +8696,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>42112</v>
       </c>
       <c r="B53" t="str">
@@ -8342,15 +8714,15 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>42393</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>01/24/2016</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>254</v>
+      <c r="D54" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E54">
         <v>2013</v>
@@ -8366,15 +8738,15 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>41604</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>11/26/2013</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>254</v>
+      <c r="D55" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E55">
         <v>2011</v>
@@ -8390,14 +8762,14 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>41620</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
         <v>12/12/2013</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E56">
@@ -8414,15 +8786,15 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>41411</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>05/17/2013</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>254</v>
+      <c r="D57" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E57">
         <v>2012</v>
@@ -8438,15 +8810,15 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>42054</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
         <v>02/19/2015</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>254</v>
+      <c r="D58" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E58">
         <v>2013</v>
@@ -8462,14 +8834,14 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>42073</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
         <v>03/10/2015</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E59">
@@ -8486,14 +8858,14 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>41461</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
         <v>07/06/2013</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E60">
@@ -8510,14 +8882,14 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>41969</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
         <v>11/26/2014</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="2"/>
       <c r="G61">
         <v>9</v>
       </c>
@@ -8529,14 +8901,14 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>41660</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
         <v>01/21/2014</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="2"/>
       <c r="G62">
         <v>10</v>
       </c>
@@ -8548,30 +8920,30 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>41276</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
         <v>01/02/2013</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>254</v>
+      <c r="D63" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E63">
         <v>2011</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>41861</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
         <v>08/10/2014</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>254</v>
+      <c r="D64" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E64">
         <v>2011</v>
@@ -8587,14 +8959,14 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>42108</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
         <v>04/14/2015</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E65">
@@ -8611,14 +8983,14 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>41948</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B101" si="1">TEXT(A66,"mm/dd/yyyy")</f>
         <v>11/05/2014</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E66">
@@ -8635,14 +9007,14 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>41680</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
         <v>02/10/2014</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E67">
@@ -8659,14 +9031,14 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>41924</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
         <v>10/12/2014</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="2"/>
       <c r="G68">
         <v>4</v>
       </c>
@@ -8678,14 +9050,14 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>41737</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
         <v>04/08/2014</v>
       </c>
-      <c r="D69" s="3"/>
+      <c r="D69" s="2"/>
       <c r="G69">
         <v>5</v>
       </c>
@@ -8697,14 +9069,14 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>41345</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
         <v>03/12/2013</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E70">
@@ -8721,15 +9093,15 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>41370</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
         <v>04/06/2013</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>255</v>
+      <c r="D71" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E71">
         <v>2012</v>
@@ -8745,14 +9117,14 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>41622</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
         <v>12/14/2013</v>
       </c>
-      <c r="D72" s="3"/>
+      <c r="D72" s="2"/>
       <c r="G72">
         <v>4</v>
       </c>
@@ -8764,14 +9136,14 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>41780</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
         <v>05/21/2014</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="2"/>
       <c r="G73">
         <v>4</v>
       </c>
@@ -8783,14 +9155,14 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>41604</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
         <v>11/26/2013</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="2"/>
       <c r="G74">
         <v>5</v>
       </c>
@@ -8802,14 +9174,14 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>42139</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
         <v>05/15/2015</v>
       </c>
-      <c r="D75" s="3"/>
+      <c r="D75" s="2"/>
       <c r="G75">
         <v>5</v>
       </c>
@@ -8821,14 +9193,14 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>42115</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
         <v>04/21/2015</v>
       </c>
-      <c r="D76" s="3"/>
+      <c r="D76" s="2"/>
       <c r="G76">
         <v>5</v>
       </c>
@@ -8840,14 +9212,14 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>42152</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
         <v>05/28/2015</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E77">
@@ -8864,14 +9236,14 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>41447</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
         <v>06/22/2013</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E78">
@@ -8888,15 +9260,15 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>41608</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
         <v>11/30/2013</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>255</v>
+      <c r="D79" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E79">
         <v>2012</v>
@@ -8912,15 +9284,15 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>42023</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
         <v>01/19/2015</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>255</v>
+      <c r="D80" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E80">
         <v>2011</v>
@@ -8936,14 +9308,14 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>42453</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
         <v>03/24/2016</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E81">
@@ -8960,14 +9332,14 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>42102</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
         <v>04/08/2015</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
       <c r="G82">
         <v>9</v>
       </c>
@@ -8979,14 +9351,14 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>42110</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
         <v>04/16/2015</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="2"/>
       <c r="G83">
         <v>4</v>
       </c>
@@ -8998,14 +9370,14 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>42107</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
         <v>04/13/2015</v>
       </c>
-      <c r="D84" s="3"/>
+      <c r="D84" s="2"/>
       <c r="G84">
         <v>4</v>
       </c>
@@ -9017,14 +9389,14 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>41371</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
         <v>04/07/2013</v>
       </c>
-      <c r="D85" s="3"/>
+      <c r="D85" s="2"/>
       <c r="G85">
         <v>4</v>
       </c>
@@ -9036,14 +9408,14 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>41375</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
         <v>04/11/2013</v>
       </c>
-      <c r="D86" s="3"/>
+      <c r="D86" s="2"/>
       <c r="G86">
         <v>4</v>
       </c>
@@ -9055,14 +9427,14 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>41811</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
         <v>06/21/2014</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E87">
@@ -9079,14 +9451,14 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>41802</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
         <v>06/12/2014</v>
       </c>
-      <c r="D88" s="3"/>
+      <c r="D88" s="2"/>
       <c r="G88">
         <v>4</v>
       </c>
@@ -9098,14 +9470,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>42009</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
         <v>01/05/2015</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E89">
@@ -9122,14 +9494,14 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>41525</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
         <v>09/08/2013</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
       <c r="G90">
         <v>4</v>
       </c>
@@ -9141,14 +9513,14 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>42144</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
         <v>05/20/2015</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="2"/>
       <c r="G91">
         <v>1</v>
       </c>
@@ -9160,15 +9532,15 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>41431</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
         <v>06/06/2013</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>254</v>
+      <c r="D92" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E92">
         <v>2010</v>
@@ -9184,14 +9556,14 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>41581</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
         <v>11/03/2013</v>
       </c>
-      <c r="D93" s="3"/>
+      <c r="D93" s="2"/>
       <c r="G93">
         <v>5</v>
       </c>
@@ -9203,14 +9575,14 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>41800</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
         <v>06/10/2014</v>
       </c>
-      <c r="D94" s="3"/>
+      <c r="D94" s="2"/>
       <c r="G94">
         <v>5</v>
       </c>
@@ -9222,14 +9594,14 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>42176</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
         <v>06/21/2015</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="2"/>
       <c r="G95">
         <v>11</v>
       </c>
@@ -9241,15 +9613,15 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>41800</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
         <v>06/10/2014</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>255</v>
+      <c r="D96" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E96">
         <v>2013</v>
@@ -9265,14 +9637,14 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>42210</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
         <v>07/25/2015</v>
       </c>
-      <c r="D97" s="3"/>
+      <c r="D97" s="2"/>
       <c r="G97">
         <v>1</v>
       </c>
@@ -9284,15 +9656,15 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>42239</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
         <v>08/23/2015</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>254</v>
+      <c r="D98" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E98">
         <v>2012</v>
@@ -9308,15 +9680,15 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>42328</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
         <v>11/20/2015</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>254</v>
+      <c r="D99" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E99">
         <v>2014</v>
@@ -9332,14 +9704,14 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>41404</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
         <v>05/10/2013</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="G100">
         <v>5</v>
       </c>
@@ -9351,14 +9723,14 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>41647</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
         <v>01/08/2014</v>
       </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="2"/>
       <c r="G101">
         <v>4</v>
       </c>
@@ -9370,48 +9742,48 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="D102" s="3"/>
+      <c r="A102" s="3"/>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>41031</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" ref="B103:B123" si="2">TEXT(A103,"mm/dd/yyyy")</f>
         <v>05/02/2012</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>41033</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="2"/>
         <v>05/04/2012</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>41269</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="2"/>
         <v>12/26/2012</v>
       </c>
-      <c r="D105" s="3"/>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>41940</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="2"/>
         <v>10/28/2014</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="2"/>
       <c r="G106">
         <v>79</v>
       </c>
@@ -9423,14 +9795,14 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>41336</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="2"/>
         <v>03/03/2013</v>
       </c>
-      <c r="D107" s="3"/>
+      <c r="D107" s="2"/>
       <c r="G107">
         <v>5</v>
       </c>
@@ -9442,14 +9814,14 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>41332</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="2"/>
         <v>02/27/2013</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="2"/>
       <c r="G108">
         <v>5</v>
       </c>
@@ -9461,89 +9833,89 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>41216</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="2"/>
         <v>11/03/2012</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>41211</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="2"/>
         <v>10/29/2012</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>41235</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="2"/>
         <v>11/22/2012</v>
       </c>
-      <c r="D111" s="3"/>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>41273</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="2"/>
         <v>12/30/2012</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>41247</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="2"/>
         <v>12/04/2012</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>41020</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="2"/>
         <v>04/21/2012</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>255</v>
+      <c r="D114" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E114">
         <v>2010</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>41031</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="2"/>
         <v>05/02/2012</v>
       </c>
-      <c r="D115" s="3"/>
+      <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>41386</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="2"/>
         <v>04/22/2013</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="2"/>
       <c r="G116">
         <v>5</v>
       </c>
@@ -9555,14 +9927,14 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>41383</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="2"/>
         <v>04/19/2013</v>
       </c>
-      <c r="D117" s="3"/>
+      <c r="D117" s="2"/>
       <c r="G117">
         <v>83</v>
       </c>
@@ -9574,8 +9946,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="D118" s="3"/>
+      <c r="A118" s="2"/>
+      <c r="D118" s="2"/>
       <c r="G118">
         <v>35</v>
       </c>
@@ -9587,14 +9959,14 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>41021</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="2"/>
         <v>04/22/2012</v>
       </c>
-      <c r="D119" s="3"/>
+      <c r="D119" s="2"/>
       <c r="G119">
         <v>4</v>
       </c>
@@ -9606,14 +9978,14 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>41017</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="2"/>
         <v>04/18/2012</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E120">
@@ -9630,15 +10002,15 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>41020</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="2"/>
         <v>04/21/2012</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>255</v>
+      <c r="D121" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E121">
         <v>2011</v>
@@ -9654,15 +10026,15 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>41329</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="2"/>
         <v>02/24/2013</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>254</v>
+      <c r="D122" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E122">
         <v>2006</v>
@@ -9678,14 +10050,14 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>41011</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="2"/>
         <v>04/12/2012</v>
       </c>
-      <c r="D123" s="3"/>
+      <c r="D123" s="2"/>
       <c r="G123">
         <v>10</v>
       </c>
@@ -9741,7 +10113,7 @@
         <f>H1/1024/1024/1024</f>
         <v>2.1659377049654722</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="12">
         <v>2.17</v>
       </c>
       <c r="M1">
@@ -9775,7 +10147,7 @@
         <f t="shared" ref="K2:K65" si="0">H2/1024/1024/1024</f>
         <v>3.5851896181702614</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <v>3.59</v>
       </c>
       <c r="M2">
@@ -9806,7 +10178,7 @@
         <f t="shared" si="0"/>
         <v>3.9953169459477067</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>4</v>
       </c>
       <c r="M3">
@@ -9843,7 +10215,7 @@
         <f t="shared" si="0"/>
         <v>7.8697409918531775</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>7.87</v>
       </c>
       <c r="M4">
@@ -9871,7 +10243,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>11.9</v>
       </c>
       <c r="M5">
@@ -9899,7 +10271,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>9.0299999999999994</v>
       </c>
       <c r="M6">
@@ -9930,7 +10302,7 @@
         <f t="shared" si="0"/>
         <v>4.2992582395672798</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>4.3</v>
       </c>
       <c r="M7">
@@ -9961,7 +10333,7 @@
         <f t="shared" si="0"/>
         <v>3.9686746541410685</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>3.97</v>
       </c>
       <c r="M8">
@@ -9992,7 +10364,7 @@
         <f t="shared" si="0"/>
         <v>4.137626176699996</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <v>4.1399999999999997</v>
       </c>
       <c r="M9">
@@ -10023,7 +10395,7 @@
         <f t="shared" si="0"/>
         <v>5.3914038706570864</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <v>5.39</v>
       </c>
       <c r="M10">
@@ -10057,7 +10429,7 @@
         <f t="shared" si="0"/>
         <v>8.4073247136548162</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>8.41</v>
       </c>
       <c r="M11">
@@ -10085,7 +10457,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>11.47</v>
       </c>
       <c r="M12">
@@ -10113,7 +10485,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>0.49619140625000002</v>
       </c>
       <c r="M13">
@@ -10138,10 +10510,10 @@
         <v>2</v>
       </c>
       <c r="K14">
-        <f>H14/1024/1024/1024</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
+        <f t="shared" ref="K14:K23" si="2">H14/1024/1024/1024</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
         <v>7.8720703124999999E-2</v>
       </c>
       <c r="M14">
@@ -10169,10 +10541,10 @@
         <v>1206029695</v>
       </c>
       <c r="K15">
-        <f>H15/1024/1024/1024</f>
+        <f t="shared" si="2"/>
         <v>1.1232026806101203</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>1.1200000000000001</v>
       </c>
       <c r="M15">
@@ -10200,10 +10572,10 @@
         <v>10435858309</v>
       </c>
       <c r="K16">
-        <f>H16/1024/1024/1024</f>
+        <f t="shared" si="2"/>
         <v>9.7191504286602139</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>9.7200000000000006</v>
       </c>
       <c r="M16">
@@ -10231,10 +10603,10 @@
         <v>12416450410</v>
       </c>
       <c r="K17">
-        <f>H17/1024/1024/1024</f>
+        <f t="shared" si="2"/>
         <v>11.563720563426614</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <v>27.13</v>
       </c>
       <c r="M17">
@@ -10262,10 +10634,10 @@
         <v>7241097661</v>
       </c>
       <c r="K18">
-        <f>H18/1024/1024/1024</f>
+        <f t="shared" si="2"/>
         <v>6.7437977166846395</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>16.12</v>
       </c>
       <c r="M18">
@@ -10293,10 +10665,10 @@
         <v>671219731</v>
       </c>
       <c r="K19">
-        <f>H19/1024/1024/1024</f>
+        <f t="shared" si="2"/>
         <v>0.62512208800762892</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>0.625126953125</v>
       </c>
       <c r="M19">
@@ -10321,10 +10693,10 @@
         <v>25</v>
       </c>
       <c r="K20">
-        <f>H20/1024/1024/1024</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
         <v>7.53</v>
       </c>
       <c r="M20">
@@ -10352,10 +10724,10 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <f>H21/1024/1024/1024</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
         <v>6.82</v>
       </c>
       <c r="M21">
@@ -10383,10 +10755,10 @@
         <v>7910330633</v>
       </c>
       <c r="K22">
-        <f>H22/1024/1024/1024</f>
+        <f t="shared" si="2"/>
         <v>7.3670694911852479</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <v>7.37</v>
       </c>
       <c r="M22">
@@ -10414,10 +10786,10 @@
         <v>8104821238</v>
       </c>
       <c r="K23">
-        <f>H23/1024/1024/1024</f>
+        <f t="shared" si="2"/>
         <v>7.54820298217237</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <v>7.55</v>
       </c>
       <c r="M23">
@@ -10448,7 +10820,7 @@
         <f t="shared" si="0"/>
         <v>7.6130589907988906</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="12">
         <v>7.61</v>
       </c>
       <c r="M24">
@@ -10476,7 +10848,7 @@
         <f t="shared" si="0"/>
         <v>7.2486802134662867</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <v>7.25</v>
       </c>
       <c r="M25">
@@ -10507,7 +10879,7 @@
         <f t="shared" si="0"/>
         <v>3.7957178056240082</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="12">
         <v>3.8</v>
       </c>
       <c r="M26">
@@ -10538,7 +10910,7 @@
         <f t="shared" si="0"/>
         <v>5.1098095858469605</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="12">
         <v>5.1100000000000003</v>
       </c>
       <c r="M27">
@@ -10572,7 +10944,7 @@
         <f t="shared" si="0"/>
         <v>1.2949363877996802</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="12">
         <v>1.29</v>
       </c>
       <c r="M28">
@@ -10603,7 +10975,7 @@
         <f t="shared" si="0"/>
         <v>0.22287215758115053</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="12">
         <v>0.22265625</v>
       </c>
       <c r="M29">
@@ -10634,7 +11006,7 @@
         <f t="shared" si="0"/>
         <v>18.209287161007524</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="12">
         <v>18.21</v>
       </c>
       <c r="M30">
@@ -10665,7 +11037,7 @@
         <f t="shared" si="0"/>
         <v>3.6177224703133106</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="12">
         <v>3.63</v>
       </c>
       <c r="M31">
@@ -10696,7 +11068,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="12">
         <v>4.7</v>
       </c>
       <c r="M32">
@@ -10724,7 +11096,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="12">
         <v>2.94</v>
       </c>
       <c r="M33">
@@ -10755,7 +11127,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="12">
         <v>7.35</v>
       </c>
       <c r="M34">
@@ -10786,7 +11158,7 @@
         <f t="shared" si="0"/>
         <v>2.8870728332549334</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="12">
         <v>2.89</v>
       </c>
       <c r="M35">
@@ -10817,7 +11189,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="12">
         <v>4.93</v>
       </c>
       <c r="M36">
@@ -10848,7 +11220,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="12">
         <v>9.52</v>
       </c>
       <c r="M37">
@@ -10879,7 +11251,7 @@
         <f t="shared" si="0"/>
         <v>3.2239624923095107</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="12">
         <v>3.22</v>
       </c>
       <c r="M38">
@@ -10910,7 +11282,7 @@
         <f t="shared" si="0"/>
         <v>5.6789399962872267</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="12">
         <v>5.68</v>
       </c>
       <c r="M39">
@@ -10941,7 +11313,7 @@
         <f t="shared" si="0"/>
         <v>0.87599239591509104</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="12">
         <v>0.87599609374999998</v>
       </c>
       <c r="M40">
@@ -10972,7 +11344,7 @@
         <f t="shared" si="0"/>
         <v>4.9974395111203194</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="12">
         <v>5</v>
       </c>
       <c r="M41">
@@ -11000,7 +11372,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="12">
         <v>13.52</v>
       </c>
       <c r="M42">
@@ -11028,7 +11400,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="12">
         <v>8.31</v>
       </c>
       <c r="M43">
@@ -11059,7 +11431,7 @@
         <f t="shared" si="0"/>
         <v>1.0624473979696631</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="12">
         <v>1.06</v>
       </c>
       <c r="M44">
@@ -11093,7 +11465,7 @@
         <f t="shared" si="0"/>
         <v>0.67041630297899246</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="12">
         <v>0.67041992187499999</v>
       </c>
       <c r="M45">
@@ -11121,7 +11493,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="12">
         <v>15.43</v>
       </c>
       <c r="M46">
@@ -11149,7 +11521,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="12">
         <v>6.88</v>
       </c>
       <c r="M47">
@@ -11180,7 +11552,7 @@
         <f t="shared" si="0"/>
         <v>8.0380717199295759</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="12">
         <v>8.0399999999999991</v>
       </c>
       <c r="M48">
@@ -11211,7 +11583,7 @@
         <f t="shared" si="0"/>
         <v>3.3324295068159699</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="12">
         <v>3.33</v>
       </c>
       <c r="M49">
@@ -11239,7 +11611,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="12">
         <v>10.71</v>
       </c>
       <c r="M50">
@@ -11270,7 +11642,7 @@
         <f t="shared" si="0"/>
         <v>1.2248943354934454</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="12">
         <v>1.22</v>
       </c>
       <c r="M51">
@@ -11304,7 +11676,7 @@
         <f t="shared" si="0"/>
         <v>1.4171525547280908</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="12">
         <v>1.42</v>
       </c>
       <c r="M52">
@@ -11335,7 +11707,7 @@
         <f t="shared" si="0"/>
         <v>8.8972434625029564</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="12">
         <v>8.9</v>
       </c>
       <c r="M53">
@@ -11366,7 +11738,7 @@
         <f t="shared" si="0"/>
         <v>9.2954285619780421</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="12">
         <v>9.3000000000000007</v>
       </c>
       <c r="M54">
@@ -11397,7 +11769,7 @@
         <f t="shared" si="0"/>
         <v>4.366833720356226</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="12">
         <v>4.37</v>
       </c>
       <c r="M55">
@@ -11428,7 +11800,7 @@
         <f t="shared" si="0"/>
         <v>3.5395859312266111</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="12">
         <v>3.54</v>
       </c>
       <c r="M56">
@@ -11459,7 +11831,7 @@
         <f t="shared" si="0"/>
         <v>0.60594052169471979</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="12">
         <v>0.60593750000000002</v>
       </c>
       <c r="M57">
@@ -11490,7 +11862,7 @@
         <f t="shared" si="0"/>
         <v>3.5230643749237061</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="12">
         <v>8.17</v>
       </c>
       <c r="M58">
@@ -11518,7 +11890,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="12">
         <v>15.94</v>
       </c>
       <c r="M59">
@@ -11546,7 +11918,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="12">
         <v>4.55</v>
       </c>
       <c r="M60">
@@ -11580,7 +11952,7 @@
         <f t="shared" si="0"/>
         <v>4.2691305922344327</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="12">
         <v>10.28</v>
       </c>
       <c r="M61">
@@ -11611,7 +11983,7 @@
         <f t="shared" si="0"/>
         <v>4.1778713678941131</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="12">
         <v>4.18</v>
       </c>
       <c r="M62">
@@ -11642,7 +12014,7 @@
         <f t="shared" si="0"/>
         <v>0.78042259253561497</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="12">
         <v>0.78041992187499998</v>
       </c>
       <c r="M63">
@@ -11670,7 +12042,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="12">
         <v>3.8</v>
       </c>
       <c r="M64">
@@ -11698,7 +12070,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="12">
         <v>3.78</v>
       </c>
       <c r="M65">
@@ -11726,14 +12098,14 @@
         <v>4048571600</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K121" si="2">H66/1024/1024/1024</f>
+        <f t="shared" ref="K66:K121" si="3">H66/1024/1024/1024</f>
         <v>3.7705261260271072</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="12">
         <v>3.77</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M121" si="3">ROUND(ABS((K66-L66)*100),2)</f>
+        <f t="shared" ref="M66:M121" si="4">ROUND(ABS((K66-L66)*100),2)</f>
         <v>0.05</v>
       </c>
     </row>
@@ -11754,14 +12126,14 @@
         <v>13</v>
       </c>
       <c r="K67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="12">
         <v>2.95</v>
       </c>
       <c r="M67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
     </row>
@@ -11782,14 +12154,14 @@
         <v>13</v>
       </c>
       <c r="K68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="12">
         <v>3.34</v>
       </c>
       <c r="M68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>334</v>
       </c>
     </row>
@@ -11810,14 +12182,14 @@
         <v>13</v>
       </c>
       <c r="K69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="12">
         <v>2.96</v>
       </c>
       <c r="M69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
     </row>
@@ -11838,14 +12210,14 @@
         <v>13</v>
       </c>
       <c r="K70">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="12">
         <v>8.2799999999999994</v>
       </c>
       <c r="M70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>828</v>
       </c>
     </row>
@@ -11869,14 +12241,14 @@
         <v>32872296460</v>
       </c>
       <c r="K71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.61471177265048</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L71" s="12">
         <v>30.61</v>
       </c>
       <c r="M71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47</v>
       </c>
     </row>
@@ -11903,14 +12275,14 @@
         <v>21496101847</v>
       </c>
       <c r="K72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.019804916344583</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="12">
         <v>20.02</v>
       </c>
       <c r="M72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
     </row>
@@ -11934,14 +12306,14 @@
         <v>5810517001</v>
       </c>
       <c r="K73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.411465653218329</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="12">
         <v>5.41</v>
       </c>
       <c r="M73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
     </row>
@@ -11965,14 +12337,14 @@
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="12">
         <v>7.53</v>
       </c>
       <c r="M74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>753</v>
       </c>
     </row>
@@ -11993,14 +12365,14 @@
         <v>15</v>
       </c>
       <c r="K75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="12">
         <v>12.6</v>
       </c>
       <c r="M75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1260</v>
       </c>
     </row>
@@ -12021,14 +12393,14 @@
         <v>11</v>
       </c>
       <c r="K76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="12">
         <v>10.68</v>
       </c>
       <c r="M76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1068</v>
       </c>
     </row>
@@ -12052,14 +12424,14 @@
         <v>8744652783</v>
       </c>
       <c r="K77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1440925439819694</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L77" s="12">
         <v>8.14</v>
       </c>
       <c r="M77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41</v>
       </c>
     </row>
@@ -12083,14 +12455,14 @@
         <v>1489281199</v>
       </c>
       <c r="K78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3870012005791068</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L78" s="12">
         <v>1.39</v>
       </c>
       <c r="M78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
     </row>
@@ -12117,14 +12489,14 @@
         <v>646679926</v>
       </c>
       <c r="K79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60226761363446712</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L79" s="12">
         <v>0.60226562500000003</v>
       </c>
       <c r="M79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12145,14 +12517,14 @@
         <v>220</v>
       </c>
       <c r="K80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="12">
         <v>11.27</v>
       </c>
       <c r="M80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1127</v>
       </c>
     </row>
@@ -12179,14 +12551,14 @@
         <v>14553369461</v>
       </c>
       <c r="K81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.553881515748799</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L81" s="12">
         <v>13.55</v>
       </c>
       <c r="M81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39</v>
       </c>
     </row>
@@ -12210,14 +12582,14 @@
         <v>4402585407</v>
       </c>
       <c r="K82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1002271762117743</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L82" s="12">
         <v>4.0999999999999996</v>
       </c>
       <c r="M82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
     </row>
@@ -12241,14 +12613,14 @@
         <v>9848869212</v>
       </c>
       <c r="K83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1724742315709591</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L83" s="12">
         <v>9.17</v>
       </c>
       <c r="M83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
     </row>
@@ -12272,14 +12644,14 @@
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="12">
         <v>14.76</v>
       </c>
       <c r="M84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1476</v>
       </c>
     </row>
@@ -12300,14 +12672,14 @@
         <v>12</v>
       </c>
       <c r="K85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="12">
         <v>8.75</v>
       </c>
       <c r="M85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>875</v>
       </c>
     </row>
@@ -12334,14 +12706,14 @@
         <v>33467813443</v>
       </c>
       <c r="K86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.169330182485282</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L86" s="12">
         <v>31.17</v>
       </c>
       <c r="M86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -12365,14 +12737,14 @@
         <v>4389910869</v>
       </c>
       <c r="K87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0884230928495526</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="12">
         <v>4.09</v>
       </c>
       <c r="M87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
     </row>
@@ -12396,14 +12768,14 @@
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="12">
         <v>5.37</v>
       </c>
       <c r="M88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>537</v>
       </c>
     </row>
@@ -12430,14 +12802,14 @@
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="12">
         <v>3.99</v>
       </c>
       <c r="M89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>399</v>
       </c>
     </row>
@@ -12461,14 +12833,14 @@
         <v>1</v>
       </c>
       <c r="K90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="12">
         <v>2.66</v>
       </c>
       <c r="M90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
     </row>
@@ -12489,14 +12861,14 @@
         <v>12</v>
       </c>
       <c r="K91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="12">
         <v>4.88</v>
       </c>
       <c r="M91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>488</v>
       </c>
     </row>
@@ -12517,14 +12889,14 @@
         <v>12</v>
       </c>
       <c r="K92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="12">
         <v>4.53</v>
       </c>
       <c r="M92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>453</v>
       </c>
     </row>
@@ -12548,14 +12920,14 @@
         <v>6892821396</v>
       </c>
       <c r="K93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4194401688873768</v>
       </c>
-      <c r="L93" s="13">
+      <c r="L93" s="12">
         <v>6.42</v>
       </c>
       <c r="M93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
     </row>
@@ -12579,18 +12951,18 @@
         <v>5172115229</v>
       </c>
       <c r="K94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8169076712802052</v>
       </c>
-      <c r="L94" s="13">
+      <c r="L94" s="12">
         <v>11.34</v>
       </c>
       <c r="M94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>652.30999999999995</v>
       </c>
       <c r="N94" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -12613,14 +12985,14 @@
         <v>5115002689</v>
       </c>
       <c r="K95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7637174734845757</v>
       </c>
-      <c r="L95" s="13">
+      <c r="L95" s="12">
         <v>4.76</v>
       </c>
       <c r="M95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37</v>
       </c>
     </row>
@@ -12644,14 +13016,14 @@
         <v>13289369158</v>
       </c>
       <c r="K96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.376689499244094</v>
       </c>
-      <c r="L96" s="13">
+      <c r="L96" s="12">
         <v>12.38</v>
       </c>
       <c r="M96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33</v>
       </c>
     </row>
@@ -12675,14 +13047,14 @@
         <v>2423318739</v>
       </c>
       <c r="K97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2568914471194148</v>
       </c>
-      <c r="L97" s="13">
+      <c r="L97" s="12">
         <v>2.2599999999999998</v>
       </c>
       <c r="M97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31</v>
       </c>
     </row>
@@ -12709,14 +13081,14 @@
         <v>887105350</v>
       </c>
       <c r="K98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82618123851716518</v>
       </c>
-      <c r="L98" s="13">
+      <c r="L98" s="12">
         <v>0.82599999999999996</v>
       </c>
       <c r="M98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
     </row>
@@ -12740,14 +13112,14 @@
         <v>675892106</v>
       </c>
       <c r="K99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62947357632219791</v>
       </c>
-      <c r="L99" s="13">
+      <c r="L99" s="12">
         <v>0.62947265625000004</v>
       </c>
       <c r="M99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12771,14 +13143,14 @@
         <v>2600968426</v>
       </c>
       <c r="K100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4223406109958887</v>
       </c>
-      <c r="L100" s="13">
+      <c r="L100" s="12">
         <v>2.42</v>
       </c>
       <c r="M100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
     </row>
@@ -12802,14 +13174,14 @@
         <v>965276887</v>
       </c>
       <c r="K101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89898415561765432</v>
       </c>
-      <c r="L101" s="13">
+      <c r="L101" s="12">
         <v>0.89898437499999995</v>
       </c>
       <c r="M101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12833,14 +13205,14 @@
         <v>1895067442</v>
       </c>
       <c r="K102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.764919089153409</v>
       </c>
-      <c r="L102" s="13">
+      <c r="L102" s="12">
         <v>1.76</v>
       </c>
       <c r="M102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49</v>
       </c>
     </row>
@@ -12864,14 +13236,14 @@
         <v>4818218700</v>
       </c>
       <c r="K103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4873158447444439</v>
       </c>
-      <c r="L103" s="13">
+      <c r="L103" s="12">
         <v>4.49</v>
       </c>
       <c r="M103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
     </row>
@@ -12892,14 +13264,14 @@
         <v>16</v>
       </c>
       <c r="K104">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L104" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="12">
         <v>15.27</v>
       </c>
       <c r="M104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1527</v>
       </c>
     </row>
@@ -12920,14 +13292,14 @@
         <v>16</v>
       </c>
       <c r="K105">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L105" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="12">
         <v>12.36</v>
       </c>
       <c r="M105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1236</v>
       </c>
     </row>
@@ -12951,14 +13323,14 @@
         <v>7805298612</v>
       </c>
       <c r="K106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2692507989704609</v>
       </c>
-      <c r="L106" s="13">
+      <c r="L106" s="12">
         <v>7.27</v>
       </c>
       <c r="M106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -12982,14 +13354,14 @@
         <v>12915404039</v>
       </c>
       <c r="K107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.02840734180063</v>
       </c>
-      <c r="L107" s="13">
+      <c r="L107" s="12">
         <v>12.03</v>
       </c>
       <c r="M107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
     </row>
@@ -13013,14 +13385,14 @@
         <v>6604812827</v>
       </c>
       <c r="K108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1512112868949771</v>
       </c>
-      <c r="L108" s="13">
+      <c r="L108" s="12">
         <v>6.15</v>
       </c>
       <c r="M108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
     </row>
@@ -13044,14 +13416,14 @@
         <v>1030103823</v>
       </c>
       <c r="K109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95935894455760717</v>
       </c>
-      <c r="L109" s="13">
+      <c r="L109" s="12">
         <v>0.95935546875</v>
       </c>
       <c r="M109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13075,14 +13447,14 @@
         <v>669279215</v>
       </c>
       <c r="K110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62331484165042639</v>
       </c>
-      <c r="L110" s="13">
+      <c r="L110" s="12">
         <v>0.62331054687499998</v>
       </c>
       <c r="M110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13106,14 +13478,14 @@
         <v>9060174840</v>
       </c>
       <c r="K111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4379453584551811</v>
       </c>
-      <c r="L111" s="13">
+      <c r="L111" s="12">
         <v>8.44</v>
       </c>
       <c r="M111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21</v>
       </c>
     </row>
@@ -13140,14 +13512,14 @@
         <v>4786145278</v>
       </c>
       <c r="K112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4574451427906752</v>
       </c>
-      <c r="L112" s="13">
+      <c r="L112" s="12">
         <v>10.57</v>
       </c>
       <c r="M112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>611.26</v>
       </c>
     </row>
@@ -13168,14 +13540,14 @@
         <v>26</v>
       </c>
       <c r="K113">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L113" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="12">
         <v>2.0699999999999998</v>
       </c>
       <c r="M113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
     </row>
@@ -13199,14 +13571,14 @@
         <v>1</v>
       </c>
       <c r="K114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="12">
         <v>6.77</v>
       </c>
       <c r="M114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>677</v>
       </c>
     </row>
@@ -13230,18 +13602,18 @@
         <v>4000788035</v>
       </c>
       <c r="K115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7260242132470012</v>
       </c>
-      <c r="L115" s="13">
+      <c r="L115" s="12">
         <v>9.42</v>
       </c>
       <c r="M115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>569.4</v>
       </c>
       <c r="N115" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -13264,14 +13636,14 @@
         <v>1820258900</v>
       </c>
       <c r="K116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6952482052147388</v>
       </c>
-      <c r="L116" s="13">
+      <c r="L116" s="12">
         <v>1.7</v>
       </c>
       <c r="M116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
     </row>
@@ -13298,14 +13670,14 @@
         <v>12054018540</v>
       </c>
       <c r="K117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.226179581135511</v>
       </c>
-      <c r="L117" s="13">
+      <c r="L117" s="12">
         <v>11.23</v>
       </c>
       <c r="M117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38</v>
       </c>
     </row>
@@ -13326,14 +13698,14 @@
         <v>22</v>
       </c>
       <c r="K118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="12">
         <v>6.55</v>
       </c>
       <c r="M118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>655</v>
       </c>
     </row>
@@ -13354,14 +13726,14 @@
         <v>11</v>
       </c>
       <c r="K119">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="12">
         <v>4.34</v>
       </c>
       <c r="M119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>434</v>
       </c>
     </row>
@@ -13382,14 +13754,14 @@
         <v>12</v>
       </c>
       <c r="K120">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="12">
         <v>19.02</v>
       </c>
       <c r="M120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1902</v>
       </c>
     </row>
@@ -13410,14 +13782,14 @@
         <v>1</v>
       </c>
       <c r="K121">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="12">
         <v>6.43</v>
       </c>
       <c r="M121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>643</v>
       </c>
     </row>

--- a/resources/database/data/db_anime - staging data.xlsx
+++ b/resources/database/data/db_anime - staging data.xlsx
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J244" sqref="J244"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218:C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13552,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D218" t="s">
         <v>325</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D219" t="s">
         <v>328</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D220" t="s">
         <v>353</v>
@@ -13694,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
         <v>496</v>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
         <v>497</v>
@@ -13777,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D223" t="s">
         <v>498</v>
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
         <v>499</v>
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D225" t="s">
         <v>500</v>
@@ -13885,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D226" t="s">
         <v>369</v>
@@ -13935,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D227" t="s">
         <v>501</v>
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D228" t="s">
         <v>511</v>
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
         <v>503</v>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D230" t="s">
         <v>504</v>
@@ -14121,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D231" t="s">
         <v>505</v>
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
         <v>380</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D233" t="s">
         <v>384</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
         <v>387</v>
@@ -14308,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D235" t="s">
         <v>390</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D236" t="s">
         <v>402</v>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D237" t="s">
         <v>506</v>
@@ -14442,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D238" t="s">
         <v>421</v>
@@ -14487,7 +14487,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D239" t="s">
         <v>422</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D240" t="s">
         <v>424</v>
@@ -14577,7 +14577,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D241" t="s">
         <v>507</v>
